--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2850.510123670067</v>
+        <v>846.1802229679638</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9750001430511475</v>
+        <v>0.9639999866485596</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.15095032125944</v>
+        <v>42.20364152532304</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.66823745719963</v>
+        <v>4.194538084239316</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.897410806009026</v>
+        <v>2.171119526880084</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2773.209999999998</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.91999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,67 +595,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -929,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.35124120223185</v>
+        <v>30.20851569551314</v>
       </c>
     </row>
     <row r="4">
@@ -953,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>34.51365478940171</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>37.24751652694442</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,13 +968,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1037,13 +982,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1051,10 +996,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1065,183 +1010,15 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1344,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.7199999999999</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1355,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>168.6449999999992</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1366,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>175.9099999999993</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1377,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>167.0049999999995</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>178.6300000000003</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1399,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>292.4099999999993</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1410,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>300.85</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1421,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>310.4150000000006</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1432,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>315.4350000000001</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1443,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>309.5850000000008</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -1454,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999935</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1465,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999933</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1476,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1487,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1498,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1520,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1531,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1542,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36500000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1553,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.53999999999999</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1564,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>181.0099999999993</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
@@ -1575,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>178.7850000000012</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
@@ -1586,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>193.7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
@@ -1597,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>190.2249999999988</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31">
@@ -1608,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>186.9550000000009</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32">
@@ -1619,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>167.7199999999999</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1630,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>168.6449999999992</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
@@ -1641,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>175.9099999999993</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
@@ -1652,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>167.0049999999995</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36">
@@ -1663,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>178.6300000000003</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
@@ -1674,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>292.4099999999993</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -1685,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>300.85</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
@@ -1696,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>310.4150000000006</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1707,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>315.4350000000001</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
@@ -1718,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>309.5850000000008</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>67.71999999999991</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1776,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>68.64499999999924</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1787,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>75.90999999999929</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1798,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>67.00499999999948</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -1809,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>78.63000000000028</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1820,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.4099999999993</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1831,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>200.85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1842,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>210.4150000000006</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1853,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>215.4350000000001</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -1864,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>209.5850000000008</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2076,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2087,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2098,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2109,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2120,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2189,7 +1966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2216,7 +1993,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2227,7 +2004,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2238,7 +2015,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2249,7 +2026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2260,7 +2037,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2271,7 +2048,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2282,10 +2059,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2293,10 +2070,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2304,10 +2081,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2315,10 +2092,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2326,10 +2103,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2337,89 +2114,12 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
